--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337966.2643719045</v>
+        <v>331932.5817020827</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4007641.222356119</v>
+        <v>3066682.762492662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15407201.0825513</v>
+        <v>14484967.69603912</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6014741.549135425</v>
+        <v>6402176.214338901</v>
       </c>
     </row>
     <row r="11">
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>119.5504549011779</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>135.7293992974318</v>
@@ -738,7 +740,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="C3" t="n">
-        <v>121.9329941289853</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>21.94182076836098</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>81.39848696833</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,73 +898,73 @@
         <v>135.7293992974318</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>89.73190363910518</v>
+      </c>
+      <c r="S5" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D5" t="n">
+      <c r="T5" t="n">
+        <v>29.81855126207275</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="6">
@@ -972,76 +974,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D6" t="n">
+      <c r="X6" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E6" t="n">
+      <c r="Y6" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="F6" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,61 +1056,61 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>38.15196793284785</v>
+      </c>
+      <c r="R7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E7" t="n">
+      <c r="S7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F7" t="n">
+      <c r="T7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>81.39848696832999</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,23 +1132,23 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="G8" t="n">
         <v>119.5504549011779</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>135.7293992974318</v>
@@ -1209,59 +1211,59 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C9" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="D9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>98.93847887876893</v>
-      </c>
-      <c r="I9" t="n">
-        <v>20.61197602240899</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>60.09378870120875</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>21.94182076836089</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="H11" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>91.02545209080849</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>121.9329941289853</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W12" t="n">
         <v>135.7293992974318</v>
@@ -1534,55 +1536,55 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>38.15196793284785</v>
+      </c>
+      <c r="R13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F13" t="n">
+      <c r="S13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G13" t="n">
+      <c r="T13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H13" t="n">
-        <v>119.5504549011778</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>81.39848696832989</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T14" t="n">
         <v>135.7293992974318</v>
@@ -1664,10 +1666,10 @@
         <v>135.7293992974318</v>
       </c>
       <c r="V14" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="W14" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1734,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="V15" t="n">
         <v>135.7293992974318</v>
@@ -1749,10 +1751,10 @@
         <v>135.7293992974318</v>
       </c>
       <c r="X15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>21.94182076836087</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J16" t="n">
         <v>59.456666199969</v>
@@ -1810,16 +1812,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>21.94182076836089</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>42.9217179793469</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>88.93351440885131</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>119.5504549011779</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>135.7293992974318</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>135.7293992974318</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>135.7293992974318</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,28 +2046,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>56.24178417306852</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>28.54055820271616</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2165,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>70.84370056872402</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6770637268295</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>177.0990279530006</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>127.2173885272225</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -2333,7 +2335,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>196.4912791391012</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2406,16 +2408,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>55.58262954942221</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2460,10 +2462,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>126.8110676405795</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>125.2040305762914</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.0996958715825</v>
       </c>
       <c r="U26" t="n">
-        <v>132.0837092631925</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,19 +2642,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2688,13 +2690,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>59.53643965159095</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -2713,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.0040357308909</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>249.6200629716812</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>114.3173101937215</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2886,10 +2888,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V30" t="n">
-        <v>183.8707455523276</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>48.79589417666581</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.0380364259622</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>357.854103123505</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>171.0890268032919</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>17.06919439540853</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.8252483534483</v>
+        <v>133.8464539731087</v>
       </c>
       <c r="C33" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.2040305762913</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>191.588291804708</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>354.9145426902066</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>78.59602910536552</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>95.53720232901635</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3408,7 +3410,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>11.57315202520402</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,19 +3505,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>43.73523355801913</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>246.6189799160408</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
@@ -3582,25 +3584,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3642,7 +3644,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>89.68453483306644</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -3664,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>357.959850591309</v>
+        <v>58.08531736049391</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>127.3844825763275</v>
+        <v>101.5006896599264</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3940,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X43" t="n">
-        <v>18.88606849311432</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>119.5504549011779</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>135.7293992974318</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>135.7293992974318</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>135.7293992974318</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>250.3463855721466</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>119.5504549011779</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>135.7293992974318</v>
+        <v>183.496787923697</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>39.67076193273343</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4331,22 +4333,22 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K2" t="n">
-        <v>179.7411328942751</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L2" t="n">
-        <v>314.1132381987326</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M2" t="n">
-        <v>314.1132381987326</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N2" t="n">
-        <v>314.1132381987326</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O2" t="n">
-        <v>314.1132381987326</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P2" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q2" t="n">
         <v>542.9175971897271</v>
@@ -4355,16 +4357,16 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S2" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="T2" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="U2" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="V2" t="n">
         <v>422.159561936012</v>
-      </c>
-      <c r="T2" t="n">
-        <v>285.0591586052728</v>
-      </c>
-      <c r="U2" t="n">
-        <v>285.0591586052728</v>
-      </c>
-      <c r="V2" t="n">
-        <v>285.0591586052728</v>
       </c>
       <c r="W2" t="n">
         <v>285.0591586052728</v>
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C3" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D3" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F3" t="n">
         <v>10.85835194379454</v>
@@ -4410,22 +4412,22 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K3" t="n">
-        <v>139.8012812763547</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L3" t="n">
-        <v>139.8012812763547</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M3" t="n">
-        <v>274.1733865808121</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="N3" t="n">
-        <v>274.1733865808121</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O3" t="n">
-        <v>274.1733865808121</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P3" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q3" t="n">
         <v>542.9175971897271</v>
@@ -4440,10 +4442,10 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U3" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V3" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W3" t="n">
         <v>405.8171938589879</v>
@@ -4452,7 +4454,7 @@
         <v>405.8171938589879</v>
       </c>
       <c r="Y3" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="C4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="D4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="E4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="F4" t="n">
-        <v>10.85835194379454</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="G4" t="n">
-        <v>10.85835194379454</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="H4" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I4" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962184</v>
       </c>
       <c r="J4" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L4" t="n">
         <v>145.0696190886975</v>
@@ -4498,7 +4500,7 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N4" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O4" t="n">
         <v>479.9491134615893</v>
@@ -4510,28 +4512,28 @@
         <v>504.3802558434161</v>
       </c>
       <c r="R4" t="n">
-        <v>367.2798525126769</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="S4" t="n">
-        <v>230.1794491819378</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="T4" t="n">
-        <v>93.0790458511986</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="U4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="V4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="W4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="X4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.85835194379454</v>
+        <v>504.3802558434161</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C5" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D5" t="n">
         <v>10.85835194379454</v>
@@ -4568,16 +4570,16 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K5" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L5" t="n">
-        <v>82.85689621660021</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M5" t="n">
-        <v>179.7411328942751</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="N5" t="n">
-        <v>314.1132381987326</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="O5" t="n">
         <v>448.4853435031901</v>
@@ -4589,28 +4591,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S5" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="T5" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U5" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V5" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W5" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X5" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y5" t="n">
-        <v>422.159561936012</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C6" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D6" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E6" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F6" t="n">
         <v>10.85835194379454</v>
@@ -4656,10 +4658,10 @@
         <v>205.4846037813581</v>
       </c>
       <c r="N6" t="n">
-        <v>274.1733865808121</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="O6" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P6" t="n">
         <v>408.5454918852696</v>
@@ -4683,13 +4685,13 @@
         <v>542.9175971897271</v>
       </c>
       <c r="W6" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X6" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y6" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975096</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="C7" t="n">
-        <v>422.159561936012</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="D7" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="E7" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="F7" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="G7" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="H7" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="I7" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="J7" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L7" t="n">
         <v>145.0696190886975</v>
@@ -4735,40 +4737,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N7" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O7" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P7" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q7" t="n">
-        <v>542.917597189727</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="R7" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126769</v>
       </c>
       <c r="S7" t="n">
-        <v>542.917597189727</v>
+        <v>230.1794491819378</v>
       </c>
       <c r="T7" t="n">
-        <v>542.917597189727</v>
+        <v>93.0790458511986</v>
       </c>
       <c r="U7" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="V7" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="W7" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="X7" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="Y7" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379456</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C8" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="D8" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="E8" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="F8" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="G8" t="n">
         <v>10.85835194379454</v>
@@ -4808,16 +4810,16 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L8" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M8" t="n">
-        <v>274.1733865808121</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N8" t="n">
-        <v>408.5454918852696</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="O8" t="n">
-        <v>408.5454918852696</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="P8" t="n">
         <v>542.9175971897271</v>
@@ -4841,13 +4843,13 @@
         <v>542.9175971897271</v>
       </c>
       <c r="W8" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="X8" t="n">
         <v>405.8171938589879</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>268.7167905282488</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>131.6163871975096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C9" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D9" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E9" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F9" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G9" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H9" t="n">
-        <v>31.67852974420767</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K9" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L9" t="n">
-        <v>71.11249847690068</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M9" t="n">
-        <v>139.8012812763547</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N9" t="n">
         <v>274.1733865808121</v>
@@ -4908,22 +4910,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S9" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T9" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U9" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V9" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W9" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X9" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y9" t="n">
         <v>405.8171938589879</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="E10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="F10" t="n">
-        <v>70.91559052962182</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="G10" t="n">
-        <v>70.91559052962182</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="H10" t="n">
-        <v>70.91559052962182</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I10" t="n">
         <v>70.91559052962182</v>
@@ -4981,31 +4983,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R10" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S10" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T10" t="n">
-        <v>93.07904585119849</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E11" t="n">
-        <v>315.1789073548413</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F11" t="n">
-        <v>178.0785040241021</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G11" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H11" t="n">
         <v>10.85835194379454</v>
@@ -5042,49 +5044,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K11" t="n">
-        <v>145.230457248252</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L11" t="n">
         <v>145.230457248252</v>
       </c>
       <c r="M11" t="n">
-        <v>179.7411328942751</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N11" t="n">
-        <v>179.7411328942751</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="O11" t="n">
-        <v>314.1132381987326</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P11" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q11" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R11" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S11" t="n">
-        <v>452.2793106855804</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T11" t="n">
-        <v>452.2793106855804</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>405.8171938589879</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="C12" t="n">
-        <v>405.8171938589879</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="D12" t="n">
-        <v>405.8171938589879</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="E12" t="n">
-        <v>405.8171938589879</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="F12" t="n">
-        <v>271.1233958088623</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G12" t="n">
-        <v>179.1784947070355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H12" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I12" t="n">
         <v>10.85835194379454</v>
@@ -5121,19 +5123,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K12" t="n">
-        <v>145.230457248252</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L12" t="n">
-        <v>145.230457248252</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M12" t="n">
-        <v>145.230457248252</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N12" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O12" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P12" t="n">
         <v>542.9175971897271</v>
@@ -5151,19 +5153,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U12" t="n">
-        <v>542.9175971897271</v>
+        <v>419.7529566553985</v>
       </c>
       <c r="V12" t="n">
-        <v>542.9175971897271</v>
+        <v>282.6525533246594</v>
       </c>
       <c r="W12" t="n">
-        <v>405.8171938589879</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="X12" t="n">
-        <v>405.8171938589879</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="Y12" t="n">
-        <v>405.8171938589879</v>
+        <v>145.5521499939202</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E13" t="n">
-        <v>405.8171938589878</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F13" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G13" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H13" t="n">
         <v>10.85835194379454</v>
@@ -5218,31 +5220,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q13" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R13" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S13" t="n">
-        <v>542.917597189727</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T13" t="n">
-        <v>542.917597189727</v>
+        <v>93.07904585119849</v>
       </c>
       <c r="U13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="14">
@@ -5288,10 +5290,10 @@
         <v>279.6025625527094</v>
       </c>
       <c r="N14" t="n">
-        <v>408.5454918852696</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="O14" t="n">
-        <v>408.5454918852696</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="P14" t="n">
         <v>542.9175971897271</v>
@@ -5303,16 +5305,16 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S14" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T14" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="U14" t="n">
-        <v>268.7167905282488</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="V14" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W14" t="n">
         <v>10.85835194379454</v>
@@ -5358,19 +5360,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K15" t="n">
-        <v>145.230457248252</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L15" t="n">
-        <v>279.6025625527094</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M15" t="n">
+        <v>274.1733865808121</v>
+      </c>
+      <c r="N15" t="n">
+        <v>274.1733865808121</v>
+      </c>
+      <c r="O15" t="n">
         <v>408.5454918852696</v>
-      </c>
-      <c r="N15" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="O15" t="n">
-        <v>542.9175971897271</v>
       </c>
       <c r="P15" t="n">
         <v>542.9175971897271</v>
@@ -5382,22 +5384,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S15" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T15" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U15" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V15" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W15" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X15" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y15" t="n">
         <v>10.85835194379454</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
       <c r="C16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
       <c r="D16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
       <c r="E16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
       <c r="F16" t="n">
-        <v>70.91559052962182</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="G16" t="n">
-        <v>70.91559052962182</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="H16" t="n">
-        <v>70.91559052962182</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I16" t="n">
         <v>70.91559052962182</v>
@@ -5458,28 +5460,28 @@
         <v>504.380255843416</v>
       </c>
       <c r="R16" t="n">
-        <v>367.2798525126768</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S16" t="n">
-        <v>230.1794491819377</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T16" t="n">
-        <v>93.07904585119849</v>
+        <v>504.380255843416</v>
       </c>
       <c r="U16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
       <c r="V16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
       <c r="W16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
       <c r="X16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.91559052962182</v>
+        <v>504.380255843416</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.85835194379454</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="C17" t="n">
-        <v>10.85835194379454</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="D17" t="n">
-        <v>10.85835194379454</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="E17" t="n">
-        <v>10.85835194379454</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="F17" t="n">
-        <v>10.85835194379454</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G17" t="n">
-        <v>10.85835194379454</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H17" t="n">
-        <v>10.85835194379454</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I17" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K17" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L17" t="n">
-        <v>10.85835194379454</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M17" t="n">
-        <v>145.230457248252</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N17" t="n">
-        <v>279.6025625527094</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O17" t="n">
-        <v>413.9746678571669</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P17" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q17" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T17" t="n">
-        <v>542.9175971897271</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U17" t="n">
-        <v>542.9175971897271</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V17" t="n">
-        <v>542.9175971897271</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W17" t="n">
-        <v>422.159561936012</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X17" t="n">
-        <v>285.0591586052728</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="Y17" t="n">
-        <v>147.9587552745337</v>
+        <v>1007.121986527115</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.85835194379454</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>10.85835194379454</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="E18" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F18" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G18" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H18" t="n">
-        <v>10.85835194379454</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L18" t="n">
-        <v>139.8012812763547</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M18" t="n">
-        <v>274.1733865808121</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N18" t="n">
-        <v>408.5454918852696</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O18" t="n">
-        <v>542.9175971897271</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P18" t="n">
-        <v>542.9175971897271</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>542.9175971897271</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T18" t="n">
-        <v>422.159561936012</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U18" t="n">
-        <v>422.159561936012</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V18" t="n">
-        <v>285.0591586052728</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>147.9587552745337</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X18" t="n">
-        <v>10.85835194379454</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.85835194379454</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K19" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L19" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M19" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N19" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O19" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>542.917597189727</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R19" t="n">
-        <v>542.917597189727</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S19" t="n">
-        <v>405.8171938589878</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T19" t="n">
-        <v>405.8171938589878</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="U19" t="n">
-        <v>405.8171938589878</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="V19" t="n">
-        <v>268.7167905282487</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="W19" t="n">
-        <v>131.6163871975095</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="X19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.6163871975095</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.02425610119923</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="C20" t="n">
-        <v>42.02425610119923</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="D20" t="n">
-        <v>42.02425610119923</v>
+        <v>942.4484491889871</v>
       </c>
       <c r="E20" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F20" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G20" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H20" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L20" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5786,16 +5788,16 @@
         <v>1344.101260631174</v>
       </c>
       <c r="V20" t="n">
-        <v>1007.121986527115</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="W20" t="n">
-        <v>644.5870563847161</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="X20" t="n">
-        <v>262.5569159062094</v>
+        <v>1315.272413961764</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.02425610119923</v>
+        <v>1315.272413961764</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>821.3991591499413</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C21" t="n">
-        <v>659.695486390896</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D21" t="n">
-        <v>520.8568493811081</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E21" t="n">
-        <v>373.8288394379794</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F21" t="n">
-        <v>239.1350413878537</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5838,13 +5840,13 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M21" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O21" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P21" t="n">
         <v>2101.212805059961</v>
@@ -5853,28 +5855,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S21" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T21" t="n">
-        <v>1912.527701225946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U21" t="n">
-        <v>1840.968407722185</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.572785170519</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W21" t="n">
-        <v>1371.256916403829</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X21" t="n">
-        <v>1173.339928281623</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y21" t="n">
-        <v>980.8186019312022</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.6402256395189</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="C22" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>208.3647245121381</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>208.3647245121381</v>
       </c>
       <c r="G22" t="n">
         <v>42.02425610119923</v>
@@ -5935,25 +5937,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T22" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U22" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V22" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="W22" t="n">
-        <v>395.1955943238988</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="X22" t="n">
-        <v>395.1955943238988</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.1955943238988</v>
+        <v>360.3737387508193</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2101.212805059961</v>
+        <v>1070.755472871287</v>
       </c>
       <c r="C23" t="n">
-        <v>1972.710392406201</v>
+        <v>1070.755472871287</v>
       </c>
       <c r="D23" t="n">
-        <v>1599.886427633425</v>
+        <v>1070.755472871287</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.100707739532</v>
+        <v>1070.755472871287</v>
       </c>
       <c r="F23" t="n">
-        <v>790.949517049702</v>
+        <v>656.6042821814569</v>
       </c>
       <c r="G23" t="n">
-        <v>374.84553050389</v>
+        <v>240.5002956356449</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K23" t="n">
         <v>354.1631724187877</v>
@@ -6020,19 +6022,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V23" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W23" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="X23" t="n">
-        <v>2101.212805059961</v>
+        <v>1464.297328295449</v>
       </c>
       <c r="Y23" t="n">
-        <v>2101.212805059961</v>
+        <v>1070.755472871287</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>724.2262313165888</v>
+        <v>681.083616046014</v>
       </c>
       <c r="C24" t="n">
-        <v>562.5225585575436</v>
+        <v>681.083616046014</v>
       </c>
       <c r="D24" t="n">
-        <v>423.6839215477556</v>
+        <v>542.244979036226</v>
       </c>
       <c r="E24" t="n">
-        <v>276.6559116046268</v>
+        <v>395.2169690930972</v>
       </c>
       <c r="F24" t="n">
-        <v>141.9621135545012</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G24" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H24" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K24" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L24" t="n">
-        <v>407.8461012713149</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M24" t="n">
-        <v>892.8794547815413</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N24" t="n">
-        <v>1404.145100904663</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.345051688814</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P24" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T24" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>1011.737661613587</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y24" t="n">
-        <v>883.6456740978497</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F25" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G25" t="n">
         <v>42.02425610119923</v>
@@ -6166,31 +6168,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R25" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S25" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T25" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="U25" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="V25" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="W25" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X25" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y25" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>214.8414548924032</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="C26" t="n">
-        <v>214.8414548924032</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="D26" t="n">
-        <v>214.8414548924032</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E26" t="n">
-        <v>214.8414548924032</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F26" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="G26" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H26" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J26" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K26" t="n">
         <v>354.1631724187877</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T26" t="n">
-        <v>1823.345543186168</v>
+        <v>1881.920182967454</v>
       </c>
       <c r="U26" t="n">
-        <v>1689.92765504153</v>
+        <v>1627.034846681448</v>
       </c>
       <c r="V26" t="n">
-        <v>1352.948380937471</v>
+        <v>1627.034846681448</v>
       </c>
       <c r="W26" t="n">
-        <v>990.4134507950719</v>
+        <v>1627.034846681448</v>
       </c>
       <c r="X26" t="n">
-        <v>608.3833103165653</v>
+        <v>1245.004706202941</v>
       </c>
       <c r="Y26" t="n">
-        <v>214.8414548924032</v>
+        <v>1245.004706202941</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C27" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E27" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F27" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>42.02425610119923</v>
+        <v>44.796090196649</v>
       </c>
       <c r="K27" t="n">
-        <v>42.02425610119923</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L27" t="n">
-        <v>407.8461012713149</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M27" t="n">
-        <v>892.8794547815413</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N27" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O27" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P27" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S27" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T27" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U27" t="n">
-        <v>1759.728214238687</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V27" t="n">
-        <v>1531.332591687021</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W27" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X27" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y27" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1879.177646252238</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>1709.561676713919</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>1879.177646252238</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1010.926404249426</v>
+        <v>1090.250683207395</v>
       </c>
       <c r="C29" t="n">
-        <v>628.9926455822329</v>
+        <v>708.3169245402019</v>
       </c>
       <c r="D29" t="n">
-        <v>628.9926455822329</v>
+        <v>708.3169245402019</v>
       </c>
       <c r="E29" t="n">
-        <v>628.9926455822329</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
@@ -6464,16 +6466,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L29" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6488,25 +6490,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S29" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T29" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U29" t="n">
-        <v>1913.983829690315</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V29" t="n">
-        <v>1913.983829690315</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W29" t="n">
-        <v>1913.983829690315</v>
+        <v>1483.792538631556</v>
       </c>
       <c r="X29" t="n">
-        <v>1798.511799191607</v>
+        <v>1483.792538631556</v>
       </c>
       <c r="Y29" t="n">
-        <v>1404.969943767445</v>
+        <v>1090.250683207395</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C30" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D30" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E30" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F30" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G30" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6564,28 +6566,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S30" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T30" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U30" t="n">
-        <v>1729.918525671012</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V30" t="n">
-        <v>1544.19049986058</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W30" t="n">
-        <v>1302.87463109389</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X30" t="n">
-        <v>1104.957642971684</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y30" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="31">
@@ -6646,25 +6648,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>302.7595605427766</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>302.7595605427766</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V31" t="n">
-        <v>42.02425610119923</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W31" t="n">
-        <v>42.02425610119923</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="X31" t="n">
-        <v>42.02425610119923</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.02425610119923</v>
+        <v>91.31303809783137</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1707.169265541942</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="C32" t="n">
-        <v>1325.235506874749</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="D32" t="n">
-        <v>1325.235506874749</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="E32" t="n">
-        <v>1325.235506874749</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="F32" t="n">
-        <v>963.766715840906</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="G32" t="n">
-        <v>547.662729295094</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H32" t="n">
         <v>214.8414548924032</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J32" t="n">
         <v>114.0228003740049</v>
@@ -6704,13 +6706,13 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L32" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M32" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N32" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O32" t="n">
         <v>1778.623654917371</v>
@@ -6731,19 +6733,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.212805059961</v>
+        <v>2083.971194559549</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.212805059961</v>
+        <v>1746.99192045549</v>
       </c>
       <c r="W32" t="n">
-        <v>2101.212805059961</v>
+        <v>1384.456990313091</v>
       </c>
       <c r="X32" t="n">
-        <v>2101.212805059961</v>
+        <v>1002.426849834584</v>
       </c>
       <c r="Y32" t="n">
-        <v>2101.212805059961</v>
+        <v>608.8849944104223</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.3370166032433</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="C33" t="n">
-        <v>759.6333438441981</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="D33" t="n">
-        <v>620.7947068344101</v>
+        <v>486.1009087842844</v>
       </c>
       <c r="E33" t="n">
-        <v>473.7666968912813</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F33" t="n">
         <v>339.0728988411556</v>
@@ -6777,22 +6779,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K33" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L33" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M33" t="n">
-        <v>895.6512888769911</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N33" t="n">
-        <v>1406.916935000113</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O33" t="n">
-        <v>1799.116885784264</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P33" t="n">
         <v>2101.212805059961</v>
@@ -6801,28 +6803,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T33" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U33" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y33" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1695.622277567859</v>
+        <v>1907.689277984499</v>
       </c>
       <c r="C34" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>1738.073308446179</v>
       </c>
       <c r="G34" t="n">
         <v>1569.153559814029</v>
@@ -6898,10 +6900,10 @@
         <v>2101.212805059961</v>
       </c>
       <c r="X34" t="n">
-        <v>2101.212805059961</v>
+        <v>1907.689277984499</v>
       </c>
       <c r="Y34" t="n">
-        <v>1879.177646252238</v>
+        <v>1907.689277984499</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>795.3095140660082</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="C35" t="n">
-        <v>795.3095140660082</v>
+        <v>1639.88911800351</v>
       </c>
       <c r="D35" t="n">
-        <v>795.3095140660082</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E35" t="n">
-        <v>400.5237941721151</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6965,22 +6967,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T35" t="n">
-        <v>1876.853858790972</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U35" t="n">
-        <v>1876.853858790972</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="V35" t="n">
-        <v>1539.874584686914</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="W35" t="n">
-        <v>1177.339654544515</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="X35" t="n">
-        <v>795.3095140660082</v>
+        <v>2021.822876670703</v>
       </c>
       <c r="Y35" t="n">
-        <v>795.3095140660082</v>
+        <v>2021.822876670703</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>879.0006041682194</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C36" t="n">
-        <v>717.2969314091741</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D36" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E36" t="n">
-        <v>473.7666968912813</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F36" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G36" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H36" t="n">
         <v>110.4065414111382</v>
@@ -7017,49 +7019,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L36" t="n">
-        <v>637.3366538315036</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M36" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N36" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O36" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P36" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S36" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T36" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U36" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V36" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W36" t="n">
-        <v>1071.521930518641</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.521930518641</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y36" t="n">
-        <v>879.0006041682194</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="37">
@@ -7120,16 +7122,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>562.3934487964206</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>329.2144956120994</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W37" t="n">
         <v>42.02425610119923</v>
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.958983135127</v>
+        <v>458.1282426470113</v>
       </c>
       <c r="C38" t="n">
-        <v>459.0252244679344</v>
+        <v>458.1282426470113</v>
       </c>
       <c r="D38" t="n">
-        <v>86.20125969515794</v>
+        <v>458.1282426470113</v>
       </c>
       <c r="E38" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470113</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470113</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7196,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S38" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T38" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U38" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V38" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W38" t="n">
-        <v>2010.574518555815</v>
+        <v>1627.743778067699</v>
       </c>
       <c r="X38" t="n">
-        <v>1628.544378077308</v>
+        <v>1245.713637589192</v>
       </c>
       <c r="Y38" t="n">
-        <v>1235.002522653146</v>
+        <v>852.1717821650304</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>612.6053339010692</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C39" t="n">
-        <v>612.6053339010692</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D39" t="n">
-        <v>473.7666968912813</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E39" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
@@ -7254,49 +7256,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L39" t="n">
-        <v>468.100247804421</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M39" t="n">
-        <v>953.1336013146474</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N39" t="n">
-        <v>1464.39924743777</v>
+        <v>1328.067954827843</v>
       </c>
       <c r="O39" t="n">
-        <v>1856.59919822192</v>
+        <v>1720.267905611993</v>
       </c>
       <c r="P39" t="n">
-        <v>2101.212805059961</v>
+        <v>2022.363824887691</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T39" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U39" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V39" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W39" t="n">
-        <v>1162.463091154957</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X39" t="n">
-        <v>964.5461030327514</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y39" t="n">
-        <v>772.0247766823302</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>2042.562977659083</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1890.553963420402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2010.574518555815</v>
+        <v>1707.670949635799</v>
       </c>
       <c r="C41" t="n">
-        <v>1628.640759888622</v>
+        <v>1325.737190968607</v>
       </c>
       <c r="D41" t="n">
         <v>1267.065153230734</v>
@@ -7409,19 +7411,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M41" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N41" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O41" t="n">
         <v>1778.623654917371</v>
@@ -7433,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y41" t="n">
-        <v>2010.574518555815</v>
+        <v>1707.670949635799</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>681.083616046014</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C42" t="n">
-        <v>681.083616046014</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D42" t="n">
-        <v>552.412421524471</v>
+        <v>257.434551354267</v>
       </c>
       <c r="E42" t="n">
-        <v>405.3844115813423</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F42" t="n">
-        <v>270.6906135312166</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G42" t="n">
-        <v>141.9621135545012</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H42" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K42" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L42" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M42" t="n">
         <v>737.8796590913968</v>
@@ -7588,25 +7590,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>321.8363974045083</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V43" t="n">
-        <v>61.10109296293086</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W43" t="n">
-        <v>61.10109296293086</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
         <v>42.02425610119923</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.159561936012</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C44" t="n">
-        <v>422.159561936012</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D44" t="n">
-        <v>422.159561936012</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E44" t="n">
-        <v>285.0591586052728</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F44" t="n">
-        <v>147.9587552745337</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I44" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
-        <v>82.85689621660021</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K44" t="n">
-        <v>139.8012812763547</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L44" t="n">
-        <v>139.8012812763547</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M44" t="n">
-        <v>274.1733865808121</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N44" t="n">
-        <v>408.5454918852696</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O44" t="n">
-        <v>542.9175971897271</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P44" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q44" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>542.9175971897271</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T44" t="n">
-        <v>542.9175971897271</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U44" t="n">
-        <v>542.9175971897271</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V44" t="n">
-        <v>542.9175971897271</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W44" t="n">
-        <v>542.9175971897271</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="X44" t="n">
-        <v>542.9175971897271</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="Y44" t="n">
-        <v>542.9175971897271</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>131.6163871975096</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C45" t="n">
-        <v>131.6163871975096</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D45" t="n">
-        <v>10.85835194379454</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E45" t="n">
-        <v>10.85835194379454</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F45" t="n">
-        <v>10.85835194379454</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G45" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H45" t="n">
-        <v>10.85835194379454</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I45" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>10.85835194379454</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L45" t="n">
-        <v>145.230457248252</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M45" t="n">
-        <v>279.6025625527094</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N45" t="n">
-        <v>413.9746678571669</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O45" t="n">
-        <v>542.9175971897271</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P45" t="n">
-        <v>542.9175971897271</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q45" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S45" t="n">
-        <v>542.9175971897271</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T45" t="n">
-        <v>542.9175971897271</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U45" t="n">
-        <v>405.8171938589879</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V45" t="n">
-        <v>268.7167905282488</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="W45" t="n">
-        <v>268.7167905282488</v>
+        <v>1458.628076566943</v>
       </c>
       <c r="X45" t="n">
-        <v>131.6163871975096</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y45" t="n">
-        <v>131.6163871975096</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>405.8171938589879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>285.0591586052728</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>285.0591586052728</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>147.9587552745337</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>542.9175971897271</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="U46" t="n">
-        <v>542.9175971897271</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="V46" t="n">
-        <v>542.9175971897271</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="W46" t="n">
-        <v>542.9175971897271</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>542.9175971897271</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>276.6858693050315</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L2" t="n">
-        <v>327.2896114605464</v>
+        <v>249.0797930315535</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N2" t="n">
         <v>186.3981141722301</v>
@@ -7997,7 +7999,7 @@
         <v>323.6062083485883</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,25 +8060,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>181.378778055004</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M3" t="n">
         <v>251.2133018590717</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O3" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8146,7 +8148,7 @@
         <v>232.0625591822793</v>
       </c>
       <c r="N4" t="n">
-        <v>223.3630318978004</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O4" t="n">
         <v>211.9541662756472</v>
@@ -8216,19 +8218,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M5" t="n">
         <v>285.0191798281439</v>
       </c>
       <c r="N5" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
@@ -8304,13 +8306,13 @@
         <v>251.2133018590717</v>
       </c>
       <c r="N6" t="n">
-        <v>176.0977499560457</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>185.2420574994484</v>
       </c>
       <c r="P6" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>249.4645907423243</v>
@@ -8456,7 +8458,7 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>321.8055953273168</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
         <v>322.8857137945909</v>
@@ -8468,7 +8470,7 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6062083485883</v>
+        <v>318.1221922153587</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8529,19 +8531,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M9" t="n">
-        <v>184.8665114499773</v>
+        <v>245.7292857258421</v>
       </c>
       <c r="N9" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
         <v>251.5888479085429</v>
@@ -8690,25 +8692,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K11" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M11" t="n">
-        <v>222.0155828264754</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N11" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O11" t="n">
-        <v>322.6841960775522</v>
+        <v>317.2001799443227</v>
       </c>
       <c r="P11" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,22 +8771,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>242.82081673535</v>
       </c>
       <c r="M12" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N12" t="n">
-        <v>236.9605242319105</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O12" t="n">
         <v>251.5888479085429</v>
       </c>
       <c r="P12" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -8936,13 +8938,13 @@
         <v>322.8857137945909</v>
       </c>
       <c r="N14" t="n">
-        <v>316.6434973364323</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O14" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P14" t="n">
-        <v>323.6062083485883</v>
+        <v>318.1221922153587</v>
       </c>
       <c r="Q14" t="n">
         <v>180.6233730229902</v>
@@ -9006,22 +9008,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>247.7255684640984</v>
+        <v>242.2415523308688</v>
       </c>
       <c r="L15" t="n">
         <v>248.3048328685796</v>
       </c>
       <c r="M15" t="n">
-        <v>245.7292857258421</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N15" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P15" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q15" t="n">
         <v>113.7351914448925</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>318.1221922153587</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9246,22 +9248,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
-        <v>242.82081673535</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>251.5888479085429</v>
+        <v>355.4555648676831</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9413,7 +9415,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9486,7 +9488,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>315.5450020690959</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9495,7 +9497,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>113.7351914448925</v>
@@ -9714,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>111.9961691666667</v>
@@ -9732,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>355.9386573756997</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9953,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>105.8554040863129</v>
       </c>
       <c r="K27" t="n">
         <v>111.9961691666667</v>
@@ -9972,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10112,7 +10114,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L29" t="n">
         <v>542.9595789155856</v>
@@ -10352,7 +10354,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>542.9595789155851</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M32" t="n">
         <v>584.3675935406823</v>
@@ -10425,16 +10427,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>376.4077763449607</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10443,7 +10445,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>355.9386573756997</v>
       </c>
       <c r="Q33" t="n">
         <v>113.7351914448925</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10665,10 +10667,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10680,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10838,7 +10840,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10902,10 +10904,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10917,10 +10919,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>193.3806259623375</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11078,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,16 +11138,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11297,25 +11299,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>236.3425848424856</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11376,25 +11378,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>248.3048328685796</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>242.4445403651401</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O45" t="n">
-        <v>246.1048317753133</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22595,19 +22597,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>65.80623071477164</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>214.0590264618401</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X2" t="n">
         <v>242.4804397762898</v>
@@ -22626,7 +22628,7 @@
         <v>22.0958490560165</v>
       </c>
       <c r="C3" t="n">
-        <v>38.15364190246953</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -22635,7 +22637,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -22680,19 +22682,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024116</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>71.04565818573901</v>
       </c>
     </row>
     <row r="4">
@@ -22714,19 +22716,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>129.0140276561197</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>202.9198501474611</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22784,10 +22786,10 @@
         <v>254.3737048254072</v>
       </c>
       <c r="C5" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>192.2968055442262</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -22850,7 +22852,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>270.0559819687424</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>38.27479345227036</v>
       </c>
       <c r="C6" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>1.720851342258271</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>13.79640516844648</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -22923,13 +22925,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="7">
@@ -22942,16 +22944,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>48.36935494175869</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>202.9198501474611</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.552649221661</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -23030,10 +23032,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>292.392491779176</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -23081,7 +23083,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>242.4804397762898</v>
@@ -23097,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C9" t="n">
-        <v>24.35723673402308</v>
+        <v>40.53618113027692</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E9" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -23115,10 +23117,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>47.08648643443061</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,7 +23150,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995534</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -23166,7 +23168,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -23188,16 +23190,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>90.8620597232719</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>262.3765163474302</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23264,16 +23266,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
         <v>276.2135473829221</v>
       </c>
       <c r="H11" t="n">
-        <v>299.6745103965911</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
         <v>171.0890268032919</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>65.80623071477164</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23349,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>36.41576288613977</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,10 +23393,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>216.3098444776729</v>
+        <v>94.37685034868767</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W12" t="n">
         <v>103.1733107815913</v>
@@ -23422,16 +23424,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>38.22846386734111</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
         <v>142.7610139533483</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>202.9198501474612</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23543,7 +23545,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T14" t="n">
         <v>86.38595750886716</v>
@@ -23552,10 +23554,10 @@
         <v>116.6070836257141</v>
       </c>
       <c r="V14" t="n">
-        <v>197.8800820655863</v>
+        <v>214.0590264618401</v>
       </c>
       <c r="W14" t="n">
-        <v>239.3591259397971</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -23622,13 +23624,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995534</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>96.759389576495</v>
       </c>
       <c r="V15" t="n">
         <v>90.38226702871759</v>
@@ -23637,10 +23639,10 @@
         <v>103.1733107815913</v>
       </c>
       <c r="X15" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>71.04565818573903</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -23662,16 +23664,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>129.0140276561198</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>262.3765163474302</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
@@ -23741,16 +23743,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>367.0879608035845</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>239.359125939797</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23808,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>48.51673623083873</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -23826,10 +23828,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>67.24779789449671</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>90.38226702871759</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>60.20841894355158</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23902,7 +23904,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>47.68009624465068</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
         <v>157.7789187685189</v>
@@ -23932,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>172.6981552905095</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23972,10 +23974,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
@@ -23984,10 +23986,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>305.0689231603019</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24051,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>145.4661439089489</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>2.553487418999026</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -24175,7 +24177,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
@@ -24187,7 +24189,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>106.1958095147743</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24206,13 +24208,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>250.8970325532982</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>133.0017825195626</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24260,7 +24262,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24269,10 +24271,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24294,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>77.76423052020219</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>63.78504544633749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24376,7 +24378,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>42.02652056953711</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>230.8471636524779</v>
@@ -24424,13 +24426,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>154.3073811492646</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -24449,10 +24451,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.9429466803539</v>
@@ -24461,7 +24463,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>5.015660934716436</v>
       </c>
       <c r="U26" t="n">
-        <v>120.2527736599534</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24528,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>179.3662704274321</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>12.53713850962399</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24655,10 +24657,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24667,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,7 +24688,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>141.217799723273</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>263.8925288800001</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V30" t="n">
-        <v>42.24092077382173</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>132.9239208208702</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24886,10 +24888,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>173.8091272265157</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
         <v>284.3183371157911</v>
@@ -24904,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -24926,13 +24928,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>52.15557565942635</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>235.2672885277373</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>23.97879438033956</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>42.71577926664516</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25087,7 +25089,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.7789187685189</v>
@@ -25138,10 +25140,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>37.35164765886998</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25156,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>55.09513609272472</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -25205,19 +25207,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>173.7404538177804</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>41.91304831067369</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>199.9995129451453</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>347.1026291369351</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>252.3364829231459</v>
@@ -25451,7 +25453,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>112.2906009249342</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25470,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25530,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>149.2181752459566</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>93.47784511364551</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
         <v>157.7789187685189</v>
@@ -25603,10 +25605,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>11.1358745337397</v>
+        <v>311.0104077645548</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -25694,7 +25696,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>10.06576806336255</v>
+        <v>35.94956097976362</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25828,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X43" t="n">
-        <v>210.0538709704637</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>270.552649221661</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25871,13 +25873,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>255.1084633975224</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>274.2802794854996</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>276.2135473829221</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
@@ -25913,7 +25915,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>222.1153568062989</v>
@@ -25931,7 +25933,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>139.2600512977737</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>17.89979573851213</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>60.20841894355158</v>
+        <v>12.44103031728633</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,19 +26025,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>31.99071933933696</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -26074,19 +26076,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8471636524779</v>
+        <v>191.1764017197445</v>
       </c>
       <c r="U46" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387668.7785735919</v>
+        <v>387668.778573592</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387668.7785735916</v>
+        <v>387668.778573592</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387668.7785735919</v>
+        <v>387668.7785735918</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387668.7785735918</v>
+        <v>387668.7785735919</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387668.778573592</v>
+        <v>387668.7785735921</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>387668.7785735918</v>
+        <v>664526.0452607577</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664526.0452607578</v>
+        <v>664526.0452607577</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664526.0452607577</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664526.0452607579</v>
+        <v>664526.0452607577</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664526.0452607578</v>
+        <v>664526.0452607577</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664526.0452607577</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664526.0452607578</v>
+        <v>664526.0452607577</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664526.0452607576</v>
+        <v>664526.0452607579</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387668.7785735918</v>
+        <v>664526.0452607577</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77518.14111945432</v>
+        <v>77518.14111945433</v>
       </c>
       <c r="C2" t="n">
         <v>77518.14111945432</v>
       </c>
       <c r="D2" t="n">
-        <v>77518.14111945432</v>
+        <v>77518.1411194543</v>
       </c>
       <c r="E2" t="n">
-        <v>77518.14111945433</v>
+        <v>77518.14111945435</v>
       </c>
       <c r="F2" t="n">
         <v>77518.14111945432</v>
       </c>
       <c r="G2" t="n">
-        <v>77518.14111945433</v>
+        <v>132852.144310185</v>
       </c>
       <c r="H2" t="n">
-        <v>132852.144310185</v>
+        <v>132852.1443101849</v>
       </c>
       <c r="I2" t="n">
         <v>132852.144310185</v>
@@ -26353,7 +26355,7 @@
         <v>132852.144310185</v>
       </c>
       <c r="P2" t="n">
-        <v>77518.14111945433</v>
+        <v>132852.144310185</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.04348075322</v>
+        <v>45486.0434807532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106776.3355122783</v>
       </c>
       <c r="H3" t="n">
-        <v>105110.517935065</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93751.32501729493</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13115.46111714717</v>
+        <v>13115.46111714718</v>
       </c>
       <c r="C4" t="n">
         <v>13115.46111714717</v>
       </c>
       <c r="D4" t="n">
+        <v>13115.46111714718</v>
+      </c>
+      <c r="E4" t="n">
         <v>13115.46111714717</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13115.46111714718</v>
       </c>
       <c r="F4" t="n">
         <v>13115.46111714718</v>
       </c>
       <c r="G4" t="n">
-        <v>13115.46111714718</v>
+        <v>22807.33325374082</v>
       </c>
       <c r="H4" t="n">
         <v>22807.33325374082</v>
@@ -26457,7 +26459,7 @@
         <v>22807.33325374082</v>
       </c>
       <c r="P4" t="n">
-        <v>13115.46111714717</v>
+        <v>22807.33325374082</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>8252.347477283851</v>
       </c>
       <c r="G5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="H5" t="n">
         <v>31938.43463691141</v>
@@ -26509,7 +26511,7 @@
         <v>31938.43463691141</v>
       </c>
       <c r="P5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22963.31095572993</v>
+        <v>-22963.3109557299</v>
       </c>
       <c r="C6" t="n">
-        <v>22522.73252502329</v>
+        <v>22522.7325250233</v>
       </c>
       <c r="D6" t="n">
-        <v>22522.73252502329</v>
+        <v>22522.73252502328</v>
       </c>
       <c r="E6" t="n">
-        <v>56150.3325250233</v>
+        <v>56150.33252502332</v>
       </c>
       <c r="F6" t="n">
         <v>56150.33252502329</v>
       </c>
       <c r="G6" t="n">
-        <v>56150.3325250233</v>
+        <v>-28669.95909274551</v>
       </c>
       <c r="H6" t="n">
-        <v>-27004.14151553226</v>
+        <v>78106.37641953267</v>
       </c>
       <c r="I6" t="n">
         <v>78106.37641953275</v>
       </c>
       <c r="J6" t="n">
-        <v>42593.59346975558</v>
+        <v>42593.59346975549</v>
       </c>
       <c r="K6" t="n">
         <v>78106.37641953278</v>
       </c>
       <c r="L6" t="n">
-        <v>78106.37641953275</v>
+        <v>78106.37641953278</v>
       </c>
       <c r="M6" t="n">
-        <v>78106.37641953278</v>
+        <v>78106.37641953272</v>
       </c>
       <c r="N6" t="n">
-        <v>78106.37641953281</v>
+        <v>78106.37641953272</v>
       </c>
       <c r="O6" t="n">
-        <v>78106.37641953275</v>
+        <v>-15644.94859776215</v>
       </c>
       <c r="P6" t="n">
-        <v>56150.3325250233</v>
+        <v>78106.37641953272</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="G4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="H4" t="n">
         <v>525.3032012649903</v>
@@ -26829,7 +26831,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="H4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34701,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>97.86286533098477</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L2" t="n">
+        <v>57.51958086843886</v>
+      </c>
+      <c r="M2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34717,7 +34719,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>69.38260888833736</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M3" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N4" t="n">
-        <v>119.6185270197984</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O4" t="n">
         <v>99.45822878352493</v>
@@ -34936,19 +34938,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M5" t="n">
-        <v>97.86286533098477</v>
+        <v>97.8628653309848</v>
       </c>
       <c r="N5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="N6" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="O6" t="n">
         <v>69.38260888833734</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>135.7293992974318</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
         <v>135.7293992974318</v>
@@ -35188,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M9" t="n">
-        <v>69.38260888833736</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>135.7293992974318</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
-        <v>34.85926832931631</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O11" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="M12" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O12" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P12" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="N14" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>130.2453831642022</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>135.7293992974318</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L15" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M15" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>135.7293992974318</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>130.2453831642022</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>130.2453831642022</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>135.7293992974318</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>135.7293992974318</v>
+        <v>239.596116256572</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
@@ -36206,7 +36208,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>200.061099507456</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36215,7 +36217,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>247.0844513515564</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
-        <v>242.5660323684674</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L29" t="n">
         <v>351.3993667524709</v>
@@ -37072,7 +37074,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524705</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
         <v>397.2112790435232</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
-        <v>260.9238737833207</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
         <v>516.4299455789112</v>
@@ -37163,7 +37165,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>247.0844513515564</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M36" t="n">
         <v>489.93268031336</v>
@@ -37400,10 +37402,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
@@ -37622,10 +37624,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37637,10 +37639,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>79.64543451744501</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
@@ -37798,7 +37800,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N42" t="n">
         <v>516.4299455789112</v>
@@ -38017,25 +38019,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>57.51958086843886</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>135.7293992974318</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>135.7293992974318</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>135.7293992974318</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O45" t="n">
-        <v>130.2453831642022</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>331932.5817020827</v>
+        <v>257063.433060619</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3066682.762492662</v>
+        <v>714286.6128340089</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14484967.69603912</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6402176.214338901</v>
+        <v>7683996.351174616</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>79.92515991800884</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.7293992974318</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.7293992974318</v>
+        <v>104.0167386526474</v>
       </c>
       <c r="C3" t="n">
-        <v>135.7293992974318</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>135.7293992974318</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>21.94182076836098</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.57315202520402</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>135.3984571304614</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>135.7293992974318</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>29.81855126207275</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.7293992974318</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119.5504549011779</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>77.85029774090341</v>
       </c>
       <c r="W6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>135.7293992974318</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.7293992974318</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>135.7293992974318</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>81.39848696832999</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>11.57315202520407</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>119.5504549011779</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>117.851335053113</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.7293992974318</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>119.5504549011779</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>135.7293992974318</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>90.80628255447803</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>135.7293992974318</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>60.09378870120875</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>135.7293992974318</v>
+        <v>91.46446725320133</v>
       </c>
       <c r="H10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>113.0642343144364</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.5504549011779</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>135.7293992974318</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>121.9329941289853</v>
+        <v>75.13044482508219</v>
       </c>
       <c r="V12" t="n">
-        <v>135.7293992974318</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>135.7293992974318</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>81.39848696832989</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>99.65930172433372</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>135.7293992974318</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>135.7293992974318</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>119.5504549011779</v>
+        <v>52.6511448700326</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>66.2363254236416</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>135.7293992974318</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>119.5504549011779</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>135.7293992974318</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>135.7293992974318</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>21.94182076836087</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>135.7293992974318</v>
+        <v>56.24178417306852</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>42.9217179793469</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.9429466803539</v>
@@ -1864,7 +1864,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>97.25150258073599</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>110.7637463249776</v>
       </c>
       <c r="D18" t="n">
-        <v>88.93351440885131</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>99.65930172433372</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>56.24178417306852</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>185.3566856159496</v>
@@ -2140,10 +2140,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>28.54055820271616</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>303.7426484217443</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>136.7525018625928</v>
       </c>
       <c r="D21" t="n">
-        <v>110.0127259007624</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6770637268295</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>196.4912791391012</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>303.7426484217443</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2408,16 +2408,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>55.58262954942221</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>128.9874563185103</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>17.6216185013901</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>217.0996958715825</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
         <v>252.3364829231459</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>190.5961130869169</v>
+        <v>141.2732233804399</v>
       </c>
     </row>
     <row r="28">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V28" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>249.6200629716812</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>7.376576376733197</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>99.51704826962602</v>
+        <v>78.92830511632437</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2939,7 +2939,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.79589417666581</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>75.18976453185348</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>130.1897531967189</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>17.06919439540853</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -3094,10 +3094,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>133.8464539731087</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3173,7 +3173,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>94.33985964843484</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>77.98390611024949</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>191.588291804708</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>308.1546548392664</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>78.59602910536552</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>31.7489014770761</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>26.88800558897361</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>246.6189799160408</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3720,10 +3720,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>242.420315677682</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>58.08531736049391</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.9429466803539</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.83802789152274</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>101.5006896599264</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>44.27191770038194</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>22.60550845803633</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.9429466803539</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>128.100602840507</v>
       </c>
       <c r="Y44" t="n">
-        <v>250.3463855721466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,19 +4064,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>183.496787923697</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.67076193273343</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>66.95154967741722</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.85835194379454</v>
+        <v>1313.62741011778</v>
       </c>
       <c r="C2" t="n">
-        <v>10.85835194379454</v>
+        <v>931.6936514505876</v>
       </c>
       <c r="D2" t="n">
-        <v>10.85835194379454</v>
+        <v>931.6936514505876</v>
       </c>
       <c r="E2" t="n">
-        <v>10.85835194379454</v>
+        <v>536.9079315566944</v>
       </c>
       <c r="F2" t="n">
-        <v>10.85835194379454</v>
+        <v>122.7567408668647</v>
       </c>
       <c r="G2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>82.85689621660021</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>217.2290015210577</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>274.1733865808121</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>408.5454918852696</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>408.5454918852696</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
-        <v>408.5454918852696</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P2" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q2" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V2" t="n">
-        <v>422.159561936012</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W2" t="n">
-        <v>285.0591586052728</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X2" t="n">
-        <v>147.9587552745337</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.85835194379454</v>
+        <v>1707.670949635799</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.9587552745337</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
-        <v>10.85835194379454</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
-        <v>10.85835194379454</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E3" t="n">
-        <v>10.85835194379454</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
-        <v>10.85835194379454</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>10.85835194379454</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
-        <v>10.85835194379454</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>205.4846037813581</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>339.8567090858156</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>474.2288143902731</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>542.9175971897271</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O3" t="n">
-        <v>542.9175971897271</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>542.9175971897271</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U3" t="n">
-        <v>405.8171938589879</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V3" t="n">
-        <v>405.8171938589879</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W3" t="n">
-        <v>405.8171938589879</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X3" t="n">
-        <v>405.8171938589879</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y3" t="n">
-        <v>285.0591586052728</v>
+        <v>1026.404429383695</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>482.2168005218393</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>345.1163971911002</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>70.91559052962184</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843799</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L4" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M4" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N4" t="n">
-        <v>381.4854669658997</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O4" t="n">
-        <v>479.9491134615893</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P4" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>504.3802558434161</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>504.3802558434161</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>504.3802558434161</v>
+        <v>562.3934487964206</v>
       </c>
       <c r="T4" t="n">
-        <v>504.3802558434161</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>504.3802558434161</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.85835194379454</v>
+        <v>933.5480978547656</v>
       </c>
       <c r="C5" t="n">
-        <v>10.85835194379454</v>
+        <v>551.614339187573</v>
       </c>
       <c r="D5" t="n">
-        <v>10.85835194379454</v>
+        <v>178.7903744147966</v>
       </c>
       <c r="E5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>82.85689621660021</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>217.2290015210577</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L5" t="n">
-        <v>351.6011068255151</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M5" t="n">
-        <v>448.4853435031901</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N5" t="n">
-        <v>448.4853435031901</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O5" t="n">
-        <v>448.4853435031901</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4853435031901</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q5" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>452.2793106855804</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>315.1789073548413</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T5" t="n">
-        <v>285.0591586052728</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U5" t="n">
-        <v>285.0591586052728</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V5" t="n">
-        <v>285.0591586052728</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W5" t="n">
-        <v>285.0591586052728</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X5" t="n">
-        <v>285.0591586052728</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="Y5" t="n">
-        <v>147.9587552745337</v>
+        <v>933.5480978547656</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.85835194379454</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C6" t="n">
-        <v>10.85835194379454</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D6" t="n">
-        <v>10.85835194379454</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E6" t="n">
-        <v>10.85835194379454</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F6" t="n">
-        <v>10.85835194379454</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G6" t="n">
-        <v>10.85835194379454</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>71.11249847690068</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>71.11249847690068</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>71.11249847690068</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>205.4846037813581</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N6" t="n">
-        <v>339.8567090858156</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O6" t="n">
-        <v>408.5454918852696</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P6" t="n">
-        <v>408.5454918852696</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S6" t="n">
-        <v>542.9175971897271</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T6" t="n">
-        <v>542.9175971897271</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U6" t="n">
-        <v>542.9175971897271</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V6" t="n">
-        <v>542.9175971897271</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="W6" t="n">
-        <v>405.8171938589879</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X6" t="n">
-        <v>268.7167905282488</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.6163871975096</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843799</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L7" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M7" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N7" t="n">
-        <v>381.4854669658997</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O7" t="n">
-        <v>479.9491134615893</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P7" t="n">
-        <v>542.9175971897271</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>504.3802558434161</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>367.2798525126769</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>230.1794491819378</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>93.0790458511986</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U7" t="n">
-        <v>10.85835194379456</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="V7" t="n">
-        <v>10.85835194379456</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="W7" t="n">
-        <v>10.85835194379456</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="X7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.85835194379456</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.7167905282488</v>
+        <v>959.1037538931058</v>
       </c>
       <c r="C8" t="n">
-        <v>268.7167905282488</v>
+        <v>577.1699952259132</v>
       </c>
       <c r="D8" t="n">
-        <v>268.7167905282488</v>
+        <v>577.1699952259132</v>
       </c>
       <c r="E8" t="n">
-        <v>268.7167905282488</v>
+        <v>577.1699952259132</v>
       </c>
       <c r="F8" t="n">
-        <v>131.6163871975096</v>
+        <v>577.1699952259132</v>
       </c>
       <c r="G8" t="n">
-        <v>10.85835194379454</v>
+        <v>161.0660086801012</v>
       </c>
       <c r="H8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>145.230457248252</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>279.6025625527094</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>413.9746678571669</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>413.9746678571669</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P8" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>542.9175971897271</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="X8" t="n">
-        <v>405.8171938589879</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="Y8" t="n">
-        <v>268.7167905282488</v>
+        <v>959.1037538931058</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>268.7167905282488</v>
+        <v>809.9844509749746</v>
       </c>
       <c r="C9" t="n">
-        <v>147.9587552745337</v>
+        <v>648.2807782159293</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>509.4421412061414</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>362.4141312630126</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>10.85835194379454</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>10.85835194379454</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>145.230457248252</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M9" t="n">
-        <v>274.1733865808121</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>274.1733865808121</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>408.5454918852696</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>408.5454918852696</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>542.9175971897271</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>405.8171938589879</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>405.8171938589879</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>405.8171938589879</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V9" t="n">
-        <v>405.8171938589879</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W9" t="n">
-        <v>405.8171938589879</v>
+        <v>1200.422765447601</v>
       </c>
       <c r="X9" t="n">
-        <v>405.8171938589879</v>
+        <v>1002.505777325396</v>
       </c>
       <c r="Y9" t="n">
-        <v>405.8171938589879</v>
+        <v>809.9844509749746</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="E10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="F10" t="n">
-        <v>482.2168005218393</v>
+        <v>134.4126068620087</v>
       </c>
       <c r="G10" t="n">
-        <v>345.1163971911002</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>208.015993860361</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K10" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L10" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M10" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N10" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O10" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.917597189727</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.9587552745337</v>
+        <v>551.0162732824019</v>
       </c>
       <c r="C11" t="n">
-        <v>147.9587552745337</v>
+        <v>551.0162732824019</v>
       </c>
       <c r="D11" t="n">
-        <v>147.9587552745337</v>
+        <v>551.0162732824019</v>
       </c>
       <c r="E11" t="n">
-        <v>147.9587552745337</v>
+        <v>156.2305533885088</v>
       </c>
       <c r="F11" t="n">
-        <v>147.9587552745337</v>
+        <v>156.2305533885088</v>
       </c>
       <c r="G11" t="n">
-        <v>10.85835194379454</v>
+        <v>156.2305533885088</v>
       </c>
       <c r="H11" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I11" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J11" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K11" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L11" t="n">
-        <v>145.230457248252</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M11" t="n">
-        <v>279.6025625527094</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N11" t="n">
-        <v>413.9746678571669</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O11" t="n">
-        <v>542.9175971897271</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P11" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q11" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R11" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>422.159561936012</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T11" t="n">
-        <v>285.0591586052728</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U11" t="n">
-        <v>147.9587552745337</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V11" t="n">
-        <v>147.9587552745337</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W11" t="n">
-        <v>147.9587552745337</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X11" t="n">
-        <v>147.9587552745337</v>
+        <v>945.059812800421</v>
       </c>
       <c r="Y11" t="n">
-        <v>147.9587552745337</v>
+        <v>945.059812800421</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.5521499939202</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C12" t="n">
-        <v>145.5521499939202</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D12" t="n">
-        <v>145.5521499939202</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5521499939202</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F12" t="n">
-        <v>10.85835194379454</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G12" t="n">
-        <v>10.85835194379454</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>10.85835194379454</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K12" t="n">
-        <v>10.85835194379454</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L12" t="n">
-        <v>139.8012812763547</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M12" t="n">
-        <v>274.1733865808121</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N12" t="n">
-        <v>408.5454918852696</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O12" t="n">
-        <v>542.9175971897271</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P12" t="n">
-        <v>542.9175971897271</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="Q12" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>542.9175971897271</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>542.9175971897271</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U12" t="n">
-        <v>419.7529566553985</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V12" t="n">
-        <v>282.6525533246594</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W12" t="n">
-        <v>145.5521499939202</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X12" t="n">
-        <v>145.5521499939202</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.5521499939202</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="C13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="D13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="E13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="F13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K13" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L13" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M13" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N13" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O13" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P13" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>504.380255843416</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>367.2798525126768</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>230.1794491819377</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>93.07904585119849</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>10.85835194379454</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="W13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="X13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.85835194379454</v>
+        <v>186.2273004985207</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.85835194379454</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="C14" t="n">
-        <v>10.85835194379454</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="D14" t="n">
-        <v>10.85835194379454</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E14" t="n">
-        <v>10.85835194379454</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F14" t="n">
-        <v>10.85835194379454</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G14" t="n">
-        <v>10.85835194379454</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I14" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J14" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K14" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L14" t="n">
-        <v>145.230457248252</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M14" t="n">
-        <v>279.6025625527094</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N14" t="n">
-        <v>413.9746678571669</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O14" t="n">
-        <v>413.9746678571669</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P14" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q14" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S14" t="n">
-        <v>405.8171938589879</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T14" t="n">
-        <v>268.7167905282488</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U14" t="n">
-        <v>131.6163871975096</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V14" t="n">
-        <v>10.85835194379454</v>
+        <v>1545.803622300985</v>
       </c>
       <c r="W14" t="n">
-        <v>10.85835194379454</v>
+        <v>1545.803622300985</v>
       </c>
       <c r="X14" t="n">
-        <v>10.85835194379454</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.85835194379454</v>
+        <v>1163.773481822479</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.85835194379454</v>
+        <v>614.1782368302144</v>
       </c>
       <c r="C15" t="n">
-        <v>10.85835194379454</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="D15" t="n">
-        <v>10.85835194379454</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E15" t="n">
-        <v>10.85835194379454</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F15" t="n">
-        <v>10.85835194379454</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J15" t="n">
-        <v>10.85835194379454</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>139.8012812763547</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L15" t="n">
-        <v>274.1733865808121</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M15" t="n">
-        <v>274.1733865808121</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N15" t="n">
-        <v>274.1733865808121</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O15" t="n">
-        <v>408.5454918852696</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P15" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>405.8171938589879</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>405.8171938589879</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U15" t="n">
-        <v>285.0591586052728</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V15" t="n">
-        <v>147.9587552745337</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W15" t="n">
-        <v>10.85835194379454</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X15" t="n">
-        <v>10.85835194379454</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.85835194379454</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="C16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="D16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="E16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="F16" t="n">
-        <v>482.2168005218393</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="G16" t="n">
-        <v>345.1163971911002</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="H16" t="n">
-        <v>208.015993860361</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="I16" t="n">
-        <v>70.91559052962182</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K16" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L16" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O16" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P16" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>504.380255843416</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R16" t="n">
-        <v>504.380255843416</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S16" t="n">
-        <v>504.380255843416</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T16" t="n">
-        <v>504.380255843416</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="U16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="V16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="W16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="X16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
       <c r="Y16" t="n">
-        <v>504.380255843416</v>
+        <v>98.83413910429874</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1007.121986527115</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="C17" t="n">
-        <v>1007.121986527115</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="D17" t="n">
-        <v>1007.121986527115</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E17" t="n">
-        <v>1007.121986527115</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F17" t="n">
-        <v>963.766715840906</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G17" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H17" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
@@ -5548,19 +5548,19 @@
         <v>1598.98659691718</v>
       </c>
       <c r="U17" t="n">
-        <v>1344.101260631174</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V17" t="n">
-        <v>1007.121986527115</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W17" t="n">
-        <v>1007.121986527115</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="X17" t="n">
-        <v>1007.121986527115</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="Y17" t="n">
-        <v>1007.121986527115</v>
+        <v>1163.773481822479</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>461.879904359699</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C18" t="n">
-        <v>300.1762316006536</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D18" t="n">
-        <v>210.3443988644402</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E18" t="n">
-        <v>210.3443988644402</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F18" t="n">
-        <v>210.3443988644402</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G18" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I18" t="n">
         <v>42.02425610119923</v>
@@ -5597,22 +5597,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>42.02425610119923</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L18" t="n">
-        <v>407.8461012713149</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M18" t="n">
-        <v>892.8794547815413</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N18" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O18" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P18" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q18" t="n">
         <v>2101.212805059961</v>
@@ -5633,13 +5633,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.737661613587</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X18" t="n">
-        <v>813.8206734913811</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y18" t="n">
-        <v>621.2993471409599</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="C19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="D19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="E19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="F19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I19" t="n">
         <v>42.02425610119923</v>
@@ -5694,31 +5694,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>98.83413910429874</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>98.83413910429874</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="W19" t="n">
-        <v>98.83413910429874</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="X19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1315.272413961764</v>
+        <v>790.949517049702</v>
       </c>
       <c r="C20" t="n">
-        <v>1315.272413961764</v>
+        <v>790.949517049702</v>
       </c>
       <c r="D20" t="n">
-        <v>942.4484491889871</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E20" t="n">
-        <v>547.662729295094</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F20" t="n">
-        <v>547.662729295094</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G20" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L20" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5776,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T20" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U20" t="n">
-        <v>1344.101260631174</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V20" t="n">
-        <v>1315.272413961764</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W20" t="n">
-        <v>1315.272413961764</v>
+        <v>790.949517049702</v>
       </c>
       <c r="X20" t="n">
-        <v>1315.272413961764</v>
+        <v>790.949517049702</v>
       </c>
       <c r="Y20" t="n">
-        <v>1315.272413961764</v>
+        <v>790.949517049702</v>
       </c>
     </row>
     <row r="21">
@@ -5810,13 +5810,13 @@
         <v>461.879904359699</v>
       </c>
       <c r="C21" t="n">
-        <v>300.1762316006536</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="D21" t="n">
-        <v>189.052266044328</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E21" t="n">
-        <v>42.02425610119923</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F21" t="n">
         <v>42.02425610119923</v>
@@ -5831,25 +5831,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K21" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L21" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M21" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O21" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>208.3647245121381</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>208.3647245121381</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
         <v>42.02425610119923</v>
@@ -5937,25 +5937,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V22" t="n">
-        <v>360.3737387508193</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y22" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1070.755472871287</v>
+        <v>790.949517049702</v>
       </c>
       <c r="C23" t="n">
-        <v>1070.755472871287</v>
+        <v>790.949517049702</v>
       </c>
       <c r="D23" t="n">
-        <v>1070.755472871287</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E23" t="n">
-        <v>1070.755472871287</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F23" t="n">
-        <v>656.6042821814569</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G23" t="n">
-        <v>240.5002956356449</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J23" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K23" t="n">
         <v>354.1631724187877</v>
@@ -6016,25 +6016,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S23" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T23" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U23" t="n">
-        <v>1846.327468773955</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V23" t="n">
-        <v>1846.327468773955</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W23" t="n">
-        <v>1846.327468773955</v>
+        <v>790.949517049702</v>
       </c>
       <c r="X23" t="n">
-        <v>1464.297328295449</v>
+        <v>790.949517049702</v>
       </c>
       <c r="Y23" t="n">
-        <v>1070.755472871287</v>
+        <v>790.949517049702</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>681.083616046014</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C24" t="n">
-        <v>681.083616046014</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D24" t="n">
-        <v>542.244979036226</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E24" t="n">
-        <v>395.2169690930972</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L24" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M24" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N24" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O24" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P24" t="n">
         <v>2101.212805059961</v>
@@ -6168,22 +6168,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>172.3146160188864</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>172.3146160188864</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W25" t="n">
         <v>42.02425610119923</v>
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.9611666849221</v>
+        <v>981.5663304887748</v>
       </c>
       <c r="C26" t="n">
-        <v>850.9611666849221</v>
+        <v>981.5663304887748</v>
       </c>
       <c r="D26" t="n">
-        <v>850.9611666849221</v>
+        <v>981.5663304887748</v>
       </c>
       <c r="E26" t="n">
-        <v>456.1754467910289</v>
+        <v>981.5663304887748</v>
       </c>
       <c r="F26" t="n">
-        <v>42.02425610119928</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119928</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H26" t="n">
-        <v>42.02425610119928</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I26" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J26" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K26" t="n">
         <v>354.1631724187877</v>
@@ -6250,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T26" t="n">
-        <v>1881.920182967454</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U26" t="n">
-        <v>1627.034846681448</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.034846681448</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W26" t="n">
-        <v>1627.034846681448</v>
+        <v>981.5663304887748</v>
       </c>
       <c r="X26" t="n">
-        <v>1245.004706202941</v>
+        <v>981.5663304887748</v>
       </c>
       <c r="Y26" t="n">
-        <v>1245.004706202941</v>
+        <v>981.5663304887748</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.879904359699</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C27" t="n">
-        <v>300.1762316006536</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D27" t="n">
-        <v>161.3375945908657</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E27" t="n">
-        <v>42.02425610119923</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F27" t="n">
-        <v>42.02425610119923</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G27" t="n">
         <v>42.02425610119923</v>
@@ -6305,25 +6305,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K27" t="n">
-        <v>44.796090196649</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L27" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M27" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6344,13 +6344,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.737661613587</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X27" t="n">
-        <v>813.8206734913811</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y27" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>286.8932618362315</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V28" t="n">
-        <v>42.02425610119923</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W28" t="n">
         <v>42.02425610119923</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1090.250683207395</v>
+        <v>1393.15425212741</v>
       </c>
       <c r="C29" t="n">
-        <v>708.3169245402019</v>
+        <v>1011.220493460217</v>
       </c>
       <c r="D29" t="n">
-        <v>708.3169245402019</v>
+        <v>638.3965286874407</v>
       </c>
       <c r="E29" t="n">
-        <v>456.1754467910289</v>
+        <v>638.3965286874407</v>
       </c>
       <c r="F29" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H29" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
@@ -6466,7 +6466,7 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L29" t="n">
         <v>702.0485455037335</v>
@@ -6487,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U29" t="n">
-        <v>1846.327468773955</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V29" t="n">
-        <v>1846.327468773955</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="W29" t="n">
-        <v>1483.792538631556</v>
+        <v>1393.15425212741</v>
       </c>
       <c r="X29" t="n">
-        <v>1483.792538631556</v>
+        <v>1393.15425212741</v>
       </c>
       <c r="Y29" t="n">
-        <v>1090.250683207395</v>
+        <v>1393.15425212741</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.3370166032433</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6545,49 +6545,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>42.02425610119923</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L30" t="n">
-        <v>407.8461012713149</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M30" t="n">
-        <v>892.8794547815413</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N30" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O30" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P30" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1940.906265175487</v>
+        <v>1680.002653515127</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.510642623821</v>
+        <v>1451.607030963461</v>
       </c>
       <c r="W30" t="n">
-        <v>1471.194773857131</v>
+        <v>1210.291162196771</v>
       </c>
       <c r="X30" t="n">
-        <v>1273.277785734925</v>
+        <v>1012.374174074565</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.756459384504</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C31" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="D31" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="E31" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="F31" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G31" t="n">
         <v>42.02425610119923</v>
@@ -6654,19 +6654,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V31" t="n">
-        <v>313.3481969055543</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W31" t="n">
-        <v>313.3481969055543</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X31" t="n">
-        <v>313.3481969055543</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.31303809783137</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.8414548924032</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="C32" t="n">
-        <v>214.8414548924032</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="D32" t="n">
-        <v>214.8414548924032</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="E32" t="n">
-        <v>214.8414548924032</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="F32" t="n">
-        <v>214.8414548924032</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="G32" t="n">
-        <v>214.8414548924032</v>
+        <v>506.3503317126969</v>
       </c>
       <c r="H32" t="n">
-        <v>214.8414548924032</v>
+        <v>173.5290573100062</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J32" t="n">
         <v>114.0228003740049</v>
@@ -6730,22 +6730,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U32" t="n">
-        <v>2083.971194559549</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V32" t="n">
-        <v>1746.99192045549</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W32" t="n">
-        <v>1384.456990313091</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="X32" t="n">
-        <v>1002.426849834584</v>
+        <v>922.4543182585089</v>
       </c>
       <c r="Y32" t="n">
-        <v>608.8849944104223</v>
+        <v>922.4543182585089</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>486.1009087842844</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C33" t="n">
-        <v>486.1009087842844</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D33" t="n">
-        <v>486.1009087842844</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E33" t="n">
-        <v>339.0728988411556</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I33" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L33" t="n">
-        <v>468.100247804421</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M33" t="n">
-        <v>953.1336013146474</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N33" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O33" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P33" t="n">
         <v>2101.212805059961</v>
@@ -6803,28 +6803,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T33" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y33" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1907.689277984499</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V34" t="n">
-        <v>2101.212805059961</v>
+        <v>495.3118790135463</v>
       </c>
       <c r="W34" t="n">
-        <v>2101.212805059961</v>
+        <v>495.3118790135463</v>
       </c>
       <c r="X34" t="n">
-        <v>1907.689277984499</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y34" t="n">
-        <v>1907.689277984499</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2021.822876670703</v>
+        <v>735.225342888863</v>
       </c>
       <c r="C35" t="n">
-        <v>1639.88911800351</v>
+        <v>353.2915842216703</v>
       </c>
       <c r="D35" t="n">
-        <v>1267.065153230734</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E35" t="n">
-        <v>872.2794333368408</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F35" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J35" t="n">
         <v>114.0228003740049</v>
@@ -6943,13 +6943,13 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L35" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6964,25 +6964,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U35" t="n">
-        <v>2021.822876670703</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V35" t="n">
-        <v>2021.822876670703</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W35" t="n">
-        <v>2021.822876670703</v>
+        <v>735.225342888863</v>
       </c>
       <c r="X35" t="n">
-        <v>2021.822876670703</v>
+        <v>735.225342888863</v>
       </c>
       <c r="Y35" t="n">
-        <v>2021.822876670703</v>
+        <v>735.225342888863</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.879904359699</v>
+        <v>489.5945758131612</v>
       </c>
       <c r="C36" t="n">
-        <v>300.1762316006536</v>
+        <v>327.8909030541159</v>
       </c>
       <c r="D36" t="n">
-        <v>161.3375945908657</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
@@ -7019,49 +7019,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L36" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M36" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N36" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O36" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P36" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2069.143207608369</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>1916.343720621109</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1727.658616787095</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1509.163824385405</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1280.768201833739</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.737661613587</v>
+        <v>1039.452333067049</v>
       </c>
       <c r="X36" t="n">
-        <v>813.8206734913811</v>
+        <v>841.5353449448434</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.2993471409599</v>
+        <v>649.0140185944222</v>
       </c>
     </row>
     <row r="37">
@@ -7128,10 +7128,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V37" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W37" t="n">
         <v>42.02425610119923</v>
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>458.1282426470113</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="C38" t="n">
-        <v>458.1282426470113</v>
+        <v>880.0735641459282</v>
       </c>
       <c r="D38" t="n">
-        <v>458.1282426470113</v>
+        <v>880.0735641459282</v>
       </c>
       <c r="E38" t="n">
-        <v>458.1282426470113</v>
+        <v>485.2878442520351</v>
       </c>
       <c r="F38" t="n">
-        <v>458.1282426470113</v>
+        <v>485.2878442520351</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119928</v>
+        <v>69.18385770622308</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119928</v>
+        <v>69.18385770622308</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J38" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7198,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S38" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T38" t="n">
-        <v>1876.853858790972</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U38" t="n">
-        <v>1876.853858790972</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V38" t="n">
-        <v>1876.853858790972</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W38" t="n">
-        <v>1627.743778067699</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="X38" t="n">
-        <v>1245.713637589192</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="Y38" t="n">
-        <v>852.1717821650304</v>
+        <v>1262.007322813121</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L39" t="n">
-        <v>331.768955194494</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M39" t="n">
-        <v>816.8023087047204</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N39" t="n">
-        <v>1328.067954827843</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O39" t="n">
-        <v>1720.267905611993</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
-        <v>2022.363824887691</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
@@ -7368,7 +7368,7 @@
         <v>286.8932618362315</v>
       </c>
       <c r="V40" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W40" t="n">
         <v>42.02425610119923</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1707.670949635799</v>
+        <v>842.9098113506187</v>
       </c>
       <c r="C41" t="n">
-        <v>1325.737190968607</v>
+        <v>842.9098113506187</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.065153230734</v>
+        <v>470.0858465778423</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>470.0858465778423</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>470.0858465778423</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>53.98186003203028</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>53.98186003203028</v>
       </c>
       <c r="I41" t="n">
         <v>42.02425610119923</v>
@@ -7435,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1236.451666774781</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.212805059961</v>
+        <v>1236.451666774781</v>
       </c>
       <c r="Y41" t="n">
-        <v>1707.670949635799</v>
+        <v>842.9098113506187</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.6641732647531</v>
+        <v>762.9800420314432</v>
       </c>
       <c r="C42" t="n">
-        <v>359.9605005057078</v>
+        <v>601.2763692723979</v>
       </c>
       <c r="D42" t="n">
-        <v>257.434551354267</v>
+        <v>462.43773226261</v>
       </c>
       <c r="E42" t="n">
-        <v>110.4065414111382</v>
+        <v>315.4097223194812</v>
       </c>
       <c r="F42" t="n">
-        <v>110.4065414111382</v>
+        <v>315.4097223194812</v>
       </c>
       <c r="G42" t="n">
-        <v>110.4065414111382</v>
+        <v>186.6812223427658</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>86.74336488946382</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
@@ -7499,7 +7499,7 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M42" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N42" t="n">
         <v>1249.145305214519</v>
@@ -7529,13 +7529,13 @@
         <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.521930518641</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="X42" t="n">
-        <v>873.6049423964351</v>
+        <v>1114.920811163125</v>
       </c>
       <c r="Y42" t="n">
-        <v>681.083616046014</v>
+        <v>922.3994848127041</v>
       </c>
     </row>
     <row r="43">
@@ -7593,25 +7593,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="S43" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="T43" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="U43" t="n">
-        <v>286.8932618362315</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="V43" t="n">
-        <v>286.8932618362315</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="W43" t="n">
-        <v>42.02425610119923</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="X43" t="n">
-        <v>42.02425610119923</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y43" t="n">
         <v>42.02425610119923</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1267.065153230734</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.065153230734</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="D44" t="n">
-        <v>1267.065153230734</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="E44" t="n">
-        <v>872.2794333368408</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F44" t="n">
         <v>458.1282426470112</v>
@@ -7648,7 +7648,7 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
         <v>354.1631724187873</v>
@@ -7672,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S44" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T44" t="n">
-        <v>1913.983829690315</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U44" t="n">
-        <v>1913.983829690315</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V44" t="n">
-        <v>1913.983829690315</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W44" t="n">
-        <v>1913.983829690315</v>
+        <v>981.5663304887748</v>
       </c>
       <c r="X44" t="n">
-        <v>1913.983829690315</v>
+        <v>852.1717821650304</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.108692748753</v>
+        <v>852.1717821650304</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C45" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D45" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E45" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F45" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I45" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K45" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L45" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N45" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O45" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q45" t="n">
         <v>2101.212805059961</v>
@@ -7760,19 +7760,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U45" t="n">
-        <v>1699.943945333632</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V45" t="n">
-        <v>1699.943945333632</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W45" t="n">
-        <v>1458.628076566943</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X45" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y45" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="46">
@@ -7836,19 +7836,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>534.0120246474009</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U46" t="n">
-        <v>534.0120246474009</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="V46" t="n">
-        <v>273.2767202058235</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="W46" t="n">
-        <v>273.2767202058235</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="X46" t="n">
-        <v>42.02425610119923</v>
+        <v>109.6520840581863</v>
       </c>
       <c r="Y46" t="n">
         <v>42.02425610119923</v>
@@ -7981,25 +7981,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>249.0797930315535</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3981141722301</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>323.6062083485883</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8060,22 +8060,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>247.7255684640984</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>248.3048328685796</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>176.0977499560457</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8218,22 +8218,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>314.5524032714785</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L5" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>285.0191798281439</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8297,25 +8297,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>185.2420574994484</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L8" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M8" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>318.1221922153587</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8531,28 +8531,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>245.7292857258421</v>
+        <v>525.6967347807335</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>249.4645907423243</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>317.2001799443227</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8768,28 +8768,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>242.82081673535</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>242.4445403651401</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>129.0110038467633</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>327.2896114605464</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406818</v>
       </c>
       <c r="N14" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>318.1221922153587</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9005,25 +9005,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>242.2415523308688</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>248.3048328685796</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>106.7151410677083</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>244.5836053215751</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q15" t="n">
         <v>113.7351914448925</v>
@@ -9245,7 +9245,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9257,13 +9257,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>355.4555648676831</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9479,16 +9479,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M21" t="n">
-        <v>315.5450020690959</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9734,7 +9734,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>113.7351914448925</v>
@@ -9953,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>105.8554040863129</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9965,16 +9965,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>570.0697896776412</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10114,10 +10114,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155851</v>
       </c>
       <c r="M29" t="n">
         <v>584.3675935406823</v>
@@ -10193,7 +10193,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10439,13 +10439,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
         <v>113.7351914448925</v>
@@ -10591,7 +10591,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155851</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10667,10 +10667,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10682,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10837,7 +10837,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415685</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
@@ -10901,13 +10901,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L39" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>193.3806259623375</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11080,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11147,10 +11147,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11375,19 +11375,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>424.0295070382783</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>234.7709975048689</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11396,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>332.0177867623451</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -22606,16 +22606,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>214.0590264618401</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.8770375724886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.0958490560165</v>
+        <v>53.80850970080085</v>
       </c>
       <c r="C3" t="n">
-        <v>24.35723673402308</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22679,22 +22679,22 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>80.58044518024116</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>71.04565818573901</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -22716,19 +22716,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>129.0140276561197</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>199.9995129451453</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>255.4394055644928</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>49.6272863185178</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>192.2968055442262</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -22846,13 +22846,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.8770375724886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.27479345227036</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>148.2613685852459</v>
       </c>
       <c r="W6" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>60.20841894355158</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.86671378948517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>95.11776435504618</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>202.9198501474611</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23007,7 +23007,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>217.3667874383739</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -23023,7 +23023,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -23032,13 +23032,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>292.392491779176</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>211.6417266055508</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -23071,25 +23071,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.8770375724886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>40.53618113027692</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.720851342258271</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>42.54057751514637</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>15.54209281995534</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,19 +23190,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>90.8620597232719</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>31.50115184839672</v>
+        <v>75.76608389262715</v>
       </c>
       <c r="H10" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -23266,16 +23266,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>216.4288273442274</v>
       </c>
       <c r="I11" t="n">
         <v>171.0890268032919</v>
@@ -23308,22 +23308,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>65.80623071477164</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>86.38595750886716</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -23387,25 +23387,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>94.37685034868767</v>
+        <v>141.1793996525907</v>
       </c>
       <c r="V12" t="n">
-        <v>90.38226702871759</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>59.456666199969</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
-        <v>202.9198501474612</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>158.4686496728279</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -23500,7 +23500,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
@@ -23509,10 +23509,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>171.0890268032919</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.6272863185178</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>86.38595750886716</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>214.0590264618401</v>
+        <v>280.9583364929855</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>91.58892292980667</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -23624,25 +23624,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>15.54209281995534</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>96.759389576495</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>90.38226702871759</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>129.0140276561198</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>7.031614655916485</v>
+        <v>86.51922978027974</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>211.5726649703493</v>
@@ -23709,7 +23709,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23737,13 +23737,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>367.0879608035845</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>292.3549342891844</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>49.3228897064772</v>
       </c>
       <c r="D18" t="n">
-        <v>48.51673623083873</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
         <v>211.5726649703493</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>158.4686496728279</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>172.6981552905095</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23974,22 +23974,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>305.0689231603019</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>55.16693241923065</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -24050,16 +24050,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>23.33413416886202</v>
       </c>
       <c r="D21" t="n">
-        <v>27.43752473892768</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
@@ -24135,13 +24135,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>2.553487418999026</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -24177,7 +24177,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
@@ -24186,10 +24186,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24217,13 +24217,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>133.0017825195626</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24256,25 +24256,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>55.16693241923065</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>77.76423052020219</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>154.3073811492646</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -24451,19 +24451,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>392.3880602815412</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.015660934716436</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -24530,13 +24530,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>49.32288970647704</v>
       </c>
     </row>
     <row r="28">
@@ -24657,13 +24657,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V28" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>141.217799723273</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>402.6331024061982</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
@@ -24748,7 +24748,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>116.7927962080469</v>
+        <v>137.3815393613486</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.9239208208702</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>92.73004531108302</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24852,7 +24852,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.7789187685189</v>
@@ -24894,10 +24894,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24906,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
@@ -24931,13 +24931,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>40.89927360657308</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>235.2672885277373</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.97879438033956</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>101.5979585925485</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25089,7 +25089,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H34" t="n">
         <v>157.7789187685189</v>
@@ -25134,16 +25134,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>180.1440452869121</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>37.35164765886998</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>60.94107028578225</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -25204,19 +25204,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>173.7404538177804</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -25241,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -25253,7 +25253,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.43752473892757</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>14.68413607146334</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -25411,7 +25411,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>144.2010212143183</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>112.2906009249342</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25630,16 +25630,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>311.0104077645548</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0890268032919</v>
+        <v>159.2509989117692</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.3364829231459</v>
@@ -25690,7 +25690,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>35.94956097976362</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.42654475645767</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>125.4210551137292</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
@@ -25848,13 +25848,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,10 +25873,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>250.1092362332146</v>
       </c>
       <c r="Y44" t="n">
-        <v>139.2600512977737</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>12.44103031728633</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1764017197445</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>152.8632575422284</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387668.778573592</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387668.778573592</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387668.7785735918</v>
+        <v>664526.0452607579</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387668.7785735919</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387668.7785735921</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>664526.0452607577</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664526.0452607579</v>
+        <v>664526.0452607577</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664526.0452607577</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664526.0452607578</v>
+        <v>664526.0452607579</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664526.0452607577</v>
+        <v>664526.0452607579</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664526.0452607577</v>
+        <v>664526.0452607576</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664526.0452607578</v>
+        <v>664526.0452607579</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664526.0452607577</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664526.0452607579</v>
+        <v>664526.0452607578</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77518.14111945433</v>
+        <v>132852.144310185</v>
       </c>
       <c r="C2" t="n">
-        <v>77518.14111945432</v>
+        <v>132852.144310185</v>
       </c>
       <c r="D2" t="n">
-        <v>77518.1411194543</v>
+        <v>132852.144310185</v>
       </c>
       <c r="E2" t="n">
-        <v>77518.14111945435</v>
+        <v>132852.144310185</v>
       </c>
       <c r="F2" t="n">
-        <v>77518.14111945432</v>
+        <v>132852.144310185</v>
       </c>
       <c r="G2" t="n">
         <v>132852.144310185</v>
       </c>
       <c r="H2" t="n">
-        <v>132852.1443101849</v>
+        <v>132852.144310185</v>
       </c>
       <c r="I2" t="n">
         <v>132852.144310185</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.0434807532</v>
+        <v>176041.1847175274</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106776.3355122783</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>35512.78294977724</v>
+        <v>137442.4307917771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>93751.32501729493</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13115.46111714718</v>
+        <v>22807.33325374082</v>
       </c>
       <c r="C4" t="n">
-        <v>13115.46111714717</v>
+        <v>22807.33325374082</v>
       </c>
       <c r="D4" t="n">
-        <v>13115.46111714718</v>
+        <v>22807.33325374082</v>
       </c>
       <c r="E4" t="n">
-        <v>13115.46111714717</v>
+        <v>22807.33325374082</v>
       </c>
       <c r="F4" t="n">
-        <v>13115.46111714718</v>
+        <v>22807.33325374082</v>
       </c>
       <c r="G4" t="n">
         <v>22807.33325374082</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41879.94747728385</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="C5" t="n">
-        <v>41879.94747728385</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="D5" t="n">
-        <v>41879.94747728385</v>
+        <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="F5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="G5" t="n">
         <v>31938.43463691141</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22963.3109557299</v>
+        <v>-139681.9977845004</v>
       </c>
       <c r="C6" t="n">
-        <v>22522.7325250233</v>
+        <v>36359.18693302698</v>
       </c>
       <c r="D6" t="n">
-        <v>22522.73252502328</v>
+        <v>36359.18693302693</v>
       </c>
       <c r="E6" t="n">
-        <v>56150.33252502332</v>
+        <v>69986.78693302699</v>
       </c>
       <c r="F6" t="n">
-        <v>56150.33252502329</v>
+        <v>69986.78693302693</v>
       </c>
       <c r="G6" t="n">
-        <v>-28669.95909274551</v>
+        <v>69986.78693302696</v>
       </c>
       <c r="H6" t="n">
-        <v>78106.37641953267</v>
+        <v>69986.78693302693</v>
       </c>
       <c r="I6" t="n">
-        <v>78106.37641953275</v>
+        <v>69986.78693302693</v>
       </c>
       <c r="J6" t="n">
-        <v>42593.59346975549</v>
+        <v>-67455.64385875016</v>
       </c>
       <c r="K6" t="n">
-        <v>78106.37641953278</v>
+        <v>69986.78693302696</v>
       </c>
       <c r="L6" t="n">
-        <v>78106.37641953278</v>
+        <v>69986.78693302696</v>
       </c>
       <c r="M6" t="n">
-        <v>78106.37641953272</v>
+        <v>69986.78693302699</v>
       </c>
       <c r="N6" t="n">
-        <v>78106.37641953272</v>
+        <v>69986.78693302696</v>
       </c>
       <c r="O6" t="n">
-        <v>-15644.94859776215</v>
+        <v>69986.78693302696</v>
       </c>
       <c r="P6" t="n">
-        <v>78106.37641953272</v>
+        <v>69986.78693302696</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="F4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="G4" t="n">
         <v>525.3032012649903</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7293992974318</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>57.51958086843886</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7293992974318</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>135.7293992974318</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>135.7293992974318</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>69.38260888833734</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7293992974318</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L5" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>97.8628653309848</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35017,25 +35017,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>135.7293992974318</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>69.38260888833734</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L8" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M8" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>130.2453831642022</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>130.2453831642022</v>
+        <v>410.2128322190937</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>135.7293992974318</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>130.2453831642022</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>130.2453831642022</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>135.7293992974318</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>135.7293992974318</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435227</v>
       </c>
       <c r="N14" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>130.2453831642022</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>130.2453831642022</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>135.7293992974318</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>135.7293992974318</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35977,13 +35977,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>239.596116256572</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M21" t="n">
-        <v>200.061099507456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36220,7 +36220,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36454,7 +36454,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.799832419646239</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
         <v>369.5170153233491</v>
@@ -36685,16 +36685,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
-        <v>516.4299455789112</v>
+        <v>463.3546486099329</v>
       </c>
       <c r="O27" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L29" t="n">
-        <v>351.3993667524709</v>
+        <v>351.3993667524705</v>
       </c>
       <c r="M29" t="n">
         <v>397.2112790435232</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L30" t="n">
         <v>369.5170153233491</v>
@@ -36931,7 +36931,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
@@ -37159,13 +37159,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O33" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>351.3993667524705</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
         <v>489.93268031336</v>
@@ -37402,10 +37402,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>308.0854388614481</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37642,7 +37642,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.64543451744501</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233491</v>
+        <v>311.4540734671306</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>128.0558564371606</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
@@ -38116,7 +38116,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
